--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a1.xlsx
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>

--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a1.xlsx
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>

--- a/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a1.xlsx
+++ b/Instances/G0041331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a1.xlsx
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1668,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1744,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
